--- a/WindFile.xlsx
+++ b/WindFile.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Working\TowerChain_v2.0\Process\CoreParemeter\PIDdesign\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\lueliu\00_AT\newPID\PIDdesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -433,31 +433,37 @@
     <font>
       <sz val="11"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -915,10 +921,10 @@
   <dimension ref="A1:V62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C8" sqref="C7:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="11.625" customWidth="1"/>
     <col min="20" max="20" width="10" customWidth="1"/>
@@ -1065,7 +1071,7 @@
         <v>140</v>
       </c>
       <c r="G3" s="1">
-        <v>1.2250000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="H3" s="1">
         <v>6.48</v>
@@ -2443,7 +2449,7 @@
       <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:66" ht="15">
       <c r="A1" s="1" t="s">
@@ -6367,7 +6373,7 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:66" ht="15">
       <c r="A1" s="1" t="s">
@@ -10291,7 +10297,7 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:66" ht="15">
       <c r="A1" s="1" t="s">
@@ -14215,7 +14221,7 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:66" ht="15">
       <c r="A1" s="1" t="s">
@@ -18139,7 +18145,7 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:66" ht="15">
       <c r="A1" s="1" t="s">
@@ -22052,5 +22058,6 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>